--- a/toMA_x-check/PIN_RESULTS/Dimension_overview_OCHA_Somalia___SOM.xlsx
+++ b/toMA_x-check/PIN_RESULTS/Dimension_overview_OCHA_Somalia___SOM.xlsx
@@ -743,11 +743,11 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1675457</v>
+        <v>1696163</v>
       </c>
       <c r="J6" s="6" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88651</v>
+        <v>88768</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
@@ -763,31 +763,31 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>195741</v>
+        <v>197515</v>
       </c>
       <c r="N6" s="6" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O6" s="6" t="n">
-        <v>620791</v>
+        <v>592650</v>
       </c>
       <c r="P6" s="6" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q6" s="6" t="n">
-        <v>1528061</v>
+        <v>1533606</v>
       </c>
       <c r="R6" s="6" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S6" s="7" t="n">
-        <v>2580640</v>
+        <v>2575095</v>
       </c>
     </row>
     <row r="7">
@@ -810,11 +810,11 @@
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>39.4%</t>
+          <t>40.1%</t>
         </is>
       </c>
       <c r="I7" s="8" t="n">
-        <v>1263088</v>
+        <v>1283171</v>
       </c>
       <c r="J7" s="8" t="inlineStr">
         <is>
@@ -822,39 +822,39 @@
         </is>
       </c>
       <c r="K7" s="8" t="n">
-        <v>62293</v>
+        <v>62039</v>
       </c>
       <c r="L7" s="8" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="M7" s="8" t="n">
-        <v>168026</v>
+        <v>173580</v>
       </c>
       <c r="N7" s="8" t="inlineStr">
         <is>
-          <t>16.1%</t>
+          <t>15.1%</t>
         </is>
       </c>
       <c r="O7" s="8" t="n">
-        <v>516820</v>
+        <v>484435</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>1192786</v>
+        <v>1199788</v>
       </c>
       <c r="R7" s="9" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="S7" s="10" t="n">
-        <v>2010226</v>
+        <v>2003224</v>
       </c>
     </row>
     <row r="8">
@@ -877,51 +877,51 @@
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I8" s="8" t="n">
-        <v>81828</v>
+        <v>83721</v>
       </c>
       <c r="J8" s="8" t="inlineStr">
         <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>2850</v>
+      </c>
+      <c r="L8" s="8" t="inlineStr">
+        <is>
           <t>1.7%</t>
         </is>
       </c>
-      <c r="K8" s="8" t="n">
-        <v>2596</v>
-      </c>
-      <c r="L8" s="8" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
       <c r="M8" s="8" t="n">
-        <v>2287</v>
+        <v>2535</v>
       </c>
       <c r="N8" s="8" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>15.7%</t>
         </is>
       </c>
       <c r="O8" s="8" t="n">
-        <v>24228</v>
+        <v>24061</v>
       </c>
       <c r="P8" s="8" t="inlineStr">
         <is>
-          <t>27.8%</t>
+          <t>26.3%</t>
         </is>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>42636</v>
+        <v>40407</v>
       </c>
       <c r="R8" s="9" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>73.7%</t>
         </is>
       </c>
       <c r="S8" s="10" t="n">
-        <v>110938</v>
+        <v>113167</v>
       </c>
     </row>
     <row r="9">
@@ -944,11 +944,11 @@
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I9" s="8" t="n">
-        <v>330541</v>
+        <v>329272</v>
       </c>
       <c r="J9" s="8" t="inlineStr">
         <is>
@@ -956,39 +956,39 @@
         </is>
       </c>
       <c r="K9" s="8" t="n">
-        <v>23762</v>
+        <v>23878</v>
       </c>
       <c r="L9" s="8" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="M9" s="8" t="n">
-        <v>25428</v>
+        <v>21401</v>
       </c>
       <c r="N9" s="8" t="inlineStr">
         <is>
-          <t>10.6%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="O9" s="8" t="n">
-        <v>79744</v>
+        <v>84154</v>
       </c>
       <c r="P9" s="8" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>292639</v>
+        <v>293410</v>
       </c>
       <c r="R9" s="9" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>61.0%</t>
         </is>
       </c>
       <c r="S9" s="10" t="n">
-        <v>459476</v>
+        <v>458704</v>
       </c>
     </row>
     <row r="10">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="I10" s="11" t="n">
-        <v>766485</v>
+        <v>774623</v>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
@@ -1023,39 +1023,39 @@
         </is>
       </c>
       <c r="K10" s="11" t="n">
-        <v>39344</v>
+        <v>39340</v>
       </c>
       <c r="L10" s="11" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="M10" s="11" t="n">
-        <v>89120</v>
+        <v>90919</v>
       </c>
       <c r="N10" s="11" t="inlineStr">
         <is>
-          <t>16.2%</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="O10" s="11" t="n">
-        <v>305997</v>
+        <v>294181</v>
       </c>
       <c r="P10" s="11" t="inlineStr">
         <is>
-          <t>36.6%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="Q10" s="11" t="n">
-        <v>691975</v>
+        <v>693858</v>
       </c>
       <c r="R10" s="12" t="inlineStr">
         <is>
-          <t>63.4%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="S10" s="13" t="n">
-        <v>1200947</v>
+        <v>1199063</v>
       </c>
     </row>
     <row r="11">
@@ -1078,11 +1078,11 @@
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>41.0%</t>
+          <t>41.6%</t>
         </is>
       </c>
       <c r="I11" s="11" t="n">
-        <v>908972</v>
+        <v>921540</v>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="K11" s="11" t="n">
-        <v>49307</v>
+        <v>49427</v>
       </c>
       <c r="L11" s="11" t="inlineStr">
         <is>
@@ -1098,31 +1098,31 @@
         </is>
       </c>
       <c r="M11" s="11" t="n">
-        <v>106621</v>
+        <v>106597</v>
       </c>
       <c r="N11" s="11" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>13.5%</t>
         </is>
       </c>
       <c r="O11" s="11" t="n">
-        <v>314794</v>
+        <v>298468</v>
       </c>
       <c r="P11" s="11" t="inlineStr">
         <is>
-          <t>37.7%</t>
+          <t>37.9%</t>
         </is>
       </c>
       <c r="Q11" s="11" t="n">
-        <v>836086</v>
+        <v>839748</v>
       </c>
       <c r="R11" s="12" t="inlineStr">
         <is>
-          <t>62.3%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="S11" s="13" t="n">
-        <v>1379694</v>
+        <v>1376032</v>
       </c>
     </row>
     <row r="12">
@@ -1145,11 +1145,11 @@
       </c>
       <c r="H12" s="14" t="inlineStr">
         <is>
-          <t>40.7%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I12" s="14" t="n">
-        <v>310051</v>
+        <v>314216</v>
       </c>
       <c r="J12" s="14" t="inlineStr">
         <is>
@@ -1157,39 +1157,39 @@
         </is>
       </c>
       <c r="K12" s="14" t="n">
-        <v>19944</v>
+        <v>19464</v>
       </c>
       <c r="L12" s="14" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="M12" s="14" t="n">
-        <v>29071</v>
+        <v>30466</v>
       </c>
       <c r="N12" s="14" t="inlineStr">
         <is>
-          <t>10.5%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="O12" s="14" t="n">
-        <v>80335</v>
+        <v>76942</v>
       </c>
       <c r="P12" s="14" t="inlineStr">
         <is>
-          <t>42.4%</t>
+          <t>42.2%</t>
         </is>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>323134</v>
+        <v>321447</v>
       </c>
       <c r="R12" s="15" t="inlineStr">
         <is>
-          <t>57.6%</t>
+          <t>57.8%</t>
         </is>
       </c>
       <c r="S12" s="16" t="n">
-        <v>439401</v>
+        <v>441088</v>
       </c>
     </row>
     <row r="13">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="H13" s="17" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I13" s="17" t="n">
-        <v>558486</v>
+        <v>565388</v>
       </c>
       <c r="J13" s="17" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="K13" s="17" t="n">
-        <v>29550</v>
+        <v>29589</v>
       </c>
       <c r="L13" s="17" t="inlineStr">
         <is>
@@ -1232,31 +1232,31 @@
         </is>
       </c>
       <c r="M13" s="17" t="n">
-        <v>65247</v>
+        <v>65838</v>
       </c>
       <c r="N13" s="17" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O13" s="17" t="n">
-        <v>206930</v>
+        <v>197550</v>
       </c>
       <c r="P13" s="17" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q13" s="17" t="n">
-        <v>509354</v>
+        <v>511202</v>
       </c>
       <c r="R13" s="18" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S13" s="19" t="n">
-        <v>860213</v>
+        <v>858365</v>
       </c>
     </row>
     <row r="14">
@@ -1279,11 +1279,11 @@
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I14" s="17" t="n">
-        <v>698107</v>
+        <v>706735</v>
       </c>
       <c r="J14" s="17" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="K14" s="17" t="n">
-        <v>36938</v>
+        <v>36986</v>
       </c>
       <c r="L14" s="17" t="inlineStr">
         <is>
@@ -1299,31 +1299,31 @@
         </is>
       </c>
       <c r="M14" s="17" t="n">
-        <v>81559</v>
+        <v>82298</v>
       </c>
       <c r="N14" s="17" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O14" s="17" t="n">
-        <v>258663</v>
+        <v>246937</v>
       </c>
       <c r="P14" s="17" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q14" s="17" t="n">
-        <v>636692</v>
+        <v>639002</v>
       </c>
       <c r="R14" s="18" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S14" s="19" t="n">
-        <v>1075267</v>
+        <v>1072956</v>
       </c>
     </row>
     <row r="15">
@@ -1346,11 +1346,11 @@
       </c>
       <c r="H15" s="17" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I15" s="17" t="n">
-        <v>418864</v>
+        <v>424041</v>
       </c>
       <c r="J15" s="17" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="K15" s="17" t="n">
-        <v>22163</v>
+        <v>22192</v>
       </c>
       <c r="L15" s="17" t="inlineStr">
         <is>
@@ -1366,31 +1366,31 @@
         </is>
       </c>
       <c r="M15" s="17" t="n">
-        <v>48935</v>
+        <v>49379</v>
       </c>
       <c r="N15" s="17" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O15" s="17" t="n">
-        <v>155198</v>
+        <v>148162</v>
       </c>
       <c r="P15" s="17" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q15" s="17" t="n">
-        <v>382015</v>
+        <v>383401</v>
       </c>
       <c r="R15" s="18" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S15" s="19" t="n">
-        <v>645160</v>
+        <v>643774</v>
       </c>
     </row>
     <row r="16">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I16" s="20" t="n">
-        <v>167546</v>
+        <v>169616</v>
       </c>
       <c r="J16" s="20" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="K16" s="20" t="n">
-        <v>8865</v>
+        <v>8877</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="M16" s="20" t="n">
-        <v>19574</v>
+        <v>19752</v>
       </c>
       <c r="N16" s="20" t="inlineStr">
         <is>
-          <t>15.1%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="O16" s="20" t="n">
-        <v>62079</v>
+        <v>59265</v>
       </c>
       <c r="P16" s="20" t="inlineStr">
         <is>
-          <t>37.2%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="Q16" s="20" t="n">
-        <v>152806</v>
+        <v>153361</v>
       </c>
       <c r="R16" s="21" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="S16" s="22" t="n">
-        <v>258064</v>
+        <v>257510</v>
       </c>
     </row>
   </sheetData>
@@ -1635,35 +1635,35 @@
       </c>
       <c r="M6" s="35" t="inlineStr">
         <is>
-          <t>22.1%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="N6" s="35" t="n">
-        <v>53665</v>
+        <v>63430</v>
       </c>
       <c r="O6" s="36" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>37.2%</t>
         </is>
       </c>
       <c r="P6" s="36" t="n">
-        <v>101746</v>
+        <v>90402</v>
       </c>
       <c r="Q6" s="37" t="inlineStr">
         <is>
-          <t>36.1%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="R6" s="37" t="n">
-        <v>87688</v>
+        <v>89268</v>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>63.9%</t>
+          <t>63.3%</t>
         </is>
       </c>
       <c r="T6" s="10" t="n">
-        <v>155412</v>
+        <v>153832</v>
       </c>
     </row>
     <row r="7">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="I7" s="33" t="inlineStr">
         <is>
-          <t>59.4%</t>
+          <t>62.1%</t>
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>68701</v>
+        <v>71847</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
@@ -1713,27 +1713,27 @@
       </c>
       <c r="O7" s="36" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="P7" s="36" t="n">
-        <v>6964</v>
+        <v>6236</v>
       </c>
       <c r="Q7" s="37" t="inlineStr">
         <is>
-          <t>34.6%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="R7" s="37" t="n">
-        <v>40061</v>
+        <v>37643</v>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>65.4%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="T7" s="10" t="n">
-        <v>75665</v>
+        <v>78083</v>
       </c>
     </row>
     <row r="8">
@@ -1759,19 +1759,19 @@
       </c>
       <c r="I8" s="33" t="inlineStr">
         <is>
-          <t>49.0%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>45945</v>
+        <v>43580</v>
       </c>
       <c r="K8" s="34" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="L8" s="34" t="n">
-        <v>972</v>
+        <v>1237</v>
       </c>
       <c r="M8" s="35" t="inlineStr">
         <is>
@@ -1783,27 +1783,27 @@
       </c>
       <c r="O8" s="36" t="inlineStr">
         <is>
-          <t>13.8%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="P8" s="36" t="n">
-        <v>12917</v>
+        <v>10639</v>
       </c>
       <c r="Q8" s="37" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="R8" s="37" t="n">
-        <v>33929</v>
+        <v>38306</v>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>59.1%</t>
         </is>
       </c>
       <c r="T8" s="10" t="n">
-        <v>59834</v>
+        <v>55457</v>
       </c>
     </row>
     <row r="9">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="I9" s="33" t="inlineStr">
         <is>
-          <t>48.8%</t>
+          <t>57.4%</t>
         </is>
       </c>
       <c r="J9" s="33" t="n">
-        <v>84643</v>
+        <v>99583</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -1845,35 +1845,35 @@
       </c>
       <c r="M9" s="35" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="N9" s="35" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="O9" s="36" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="P9" s="36" t="n">
-        <v>32054</v>
+        <v>24841</v>
       </c>
       <c r="Q9" s="37" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>14.0%</t>
         </is>
       </c>
       <c r="R9" s="37" t="n">
-        <v>24824</v>
+        <v>24308</v>
       </c>
       <c r="S9" s="9" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>86.0%</t>
         </is>
       </c>
       <c r="T9" s="10" t="n">
-        <v>148750</v>
+        <v>149265</v>
       </c>
     </row>
     <row r="10">
@@ -1899,35 +1899,35 @@
       </c>
       <c r="I10" s="33" t="inlineStr">
         <is>
-          <t>16.9%</t>
+          <t>19.7%</t>
         </is>
       </c>
       <c r="J10" s="33" t="n">
-        <v>40505</v>
+        <v>47334</v>
       </c>
       <c r="K10" s="34" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="L10" s="34" t="n">
-        <v>3827</v>
+        <v>1907</v>
       </c>
       <c r="M10" s="35" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N10" s="35" t="n">
-        <v>14855</v>
+        <v>12157</v>
       </c>
       <c r="O10" s="36" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="P10" s="36" t="n">
-        <v>16764</v>
+        <v>14412</v>
       </c>
       <c r="Q10" s="37" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="R10" s="37" t="n">
-        <v>164063</v>
+        <v>164204</v>
       </c>
       <c r="S10" s="9" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="T10" s="10" t="n">
-        <v>75951</v>
+        <v>75810</v>
       </c>
     </row>
     <row r="11">
@@ -1969,27 +1969,27 @@
       </c>
       <c r="I11" s="33" t="inlineStr">
         <is>
-          <t>26.9%</t>
+          <t>30.4%</t>
         </is>
       </c>
       <c r="J11" s="33" t="n">
-        <v>22017</v>
+        <v>24859</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="L11" s="34" t="n">
-        <v>3547</v>
+        <v>2937</v>
       </c>
       <c r="M11" s="35" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="N11" s="35" t="n">
-        <v>4042</v>
+        <v>4322</v>
       </c>
       <c r="O11" s="36" t="inlineStr">
         <is>
@@ -2001,19 +2001,19 @@
       </c>
       <c r="Q11" s="37" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="R11" s="37" t="n">
-        <v>52247</v>
+        <v>49735</v>
       </c>
       <c r="S11" s="9" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="T11" s="10" t="n">
-        <v>29606</v>
+        <v>32117</v>
       </c>
     </row>
     <row r="12">
@@ -2039,27 +2039,27 @@
       </c>
       <c r="I12" s="33" t="inlineStr">
         <is>
-          <t>91.2%</t>
+          <t>92.5%</t>
         </is>
       </c>
       <c r="J12" s="33" t="n">
-        <v>85742</v>
+        <v>86963</v>
       </c>
       <c r="K12" s="34" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="L12" s="34" t="n">
-        <v>4138</v>
+        <v>3910</v>
       </c>
       <c r="M12" s="35" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="N12" s="35" t="n">
-        <v>1390</v>
+        <v>1059</v>
       </c>
       <c r="O12" s="36" t="inlineStr">
         <is>
@@ -2071,19 +2071,19 @@
       </c>
       <c r="Q12" s="37" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="R12" s="37" t="n">
-        <v>2780</v>
+        <v>2118</v>
       </c>
       <c r="S12" s="9" t="inlineStr">
         <is>
-          <t>97.0%</t>
+          <t>97.7%</t>
         </is>
       </c>
       <c r="T12" s="10" t="n">
-        <v>91270</v>
+        <v>91932</v>
       </c>
     </row>
     <row r="13">
@@ -2109,11 +2109,11 @@
       </c>
       <c r="I13" s="33" t="inlineStr">
         <is>
-          <t>56.8%</t>
+          <t>56.0%</t>
         </is>
       </c>
       <c r="J13" s="33" t="n">
-        <v>40382</v>
+        <v>39816</v>
       </c>
       <c r="K13" s="34" t="inlineStr">
         <is>
@@ -2125,35 +2125,35 @@
       </c>
       <c r="M13" s="35" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="N13" s="35" t="n">
-        <v>2991</v>
+        <v>3345</v>
       </c>
       <c r="O13" s="36" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>8.1%</t>
         </is>
       </c>
       <c r="P13" s="36" t="n">
-        <v>4690</v>
+        <v>5742</v>
       </c>
       <c r="Q13" s="37" t="inlineStr">
         <is>
-          <t>32.4%</t>
+          <t>31.2%</t>
         </is>
       </c>
       <c r="R13" s="37" t="n">
-        <v>23037</v>
+        <v>22197</v>
       </c>
       <c r="S13" s="9" t="inlineStr">
         <is>
-          <t>67.6%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="T13" s="10" t="n">
-        <v>48063</v>
+        <v>48903</v>
       </c>
     </row>
     <row r="14">
@@ -2179,27 +2179,27 @@
       </c>
       <c r="I14" s="33" t="inlineStr">
         <is>
-          <t>41.0%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="J14" s="33" t="n">
-        <v>84743</v>
+        <v>80462</v>
       </c>
       <c r="K14" s="34" t="inlineStr">
         <is>
-          <t>9.9%</t>
+          <t>10.9%</t>
         </is>
       </c>
       <c r="L14" s="34" t="n">
-        <v>20528</v>
+        <v>22616</v>
       </c>
       <c r="M14" s="35" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="N14" s="35" t="n">
-        <v>5465</v>
+        <v>9487</v>
       </c>
       <c r="O14" s="36" t="inlineStr">
         <is>
@@ -2207,23 +2207,23 @@
         </is>
       </c>
       <c r="P14" s="36" t="n">
-        <v>10175</v>
+        <v>10055</v>
       </c>
       <c r="Q14" s="37" t="inlineStr">
         <is>
-          <t>41.5%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="R14" s="37" t="n">
-        <v>85825</v>
+        <v>84116</v>
       </c>
       <c r="S14" s="9" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="T14" s="10" t="n">
-        <v>120911</v>
+        <v>122621</v>
       </c>
     </row>
     <row r="15">
@@ -2249,51 +2249,51 @@
       </c>
       <c r="I15" s="33" t="inlineStr">
         <is>
-          <t>43.0%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="J15" s="33" t="n">
-        <v>34116</v>
+        <v>32175</v>
       </c>
       <c r="K15" s="34" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="L15" s="34" t="n">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="M15" s="35" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="N15" s="35" t="n">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="O15" s="36" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="P15" s="36" t="n">
-        <v>2528</v>
+        <v>2144</v>
       </c>
       <c r="Q15" s="37" t="inlineStr">
         <is>
-          <t>53.2%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="R15" s="37" t="n">
-        <v>42247</v>
+        <v>44376</v>
       </c>
       <c r="S15" s="9" t="inlineStr">
         <is>
-          <t>46.8%</t>
+          <t>44.1%</t>
         </is>
       </c>
       <c r="T15" s="10" t="n">
-        <v>37110</v>
+        <v>34981</v>
       </c>
     </row>
     <row r="16">
@@ -2319,19 +2319,19 @@
       </c>
       <c r="I16" s="33" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="J16" s="33" t="n">
-        <v>18837</v>
+        <v>19254</v>
       </c>
       <c r="K16" s="34" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="L16" s="34" t="n">
-        <v>819</v>
+        <v>623</v>
       </c>
       <c r="M16" s="35" t="inlineStr">
         <is>
@@ -2343,27 +2343,27 @@
       </c>
       <c r="O16" s="36" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="P16" s="36" t="n">
-        <v>586</v>
+        <v>632</v>
       </c>
       <c r="Q16" s="37" t="inlineStr">
         <is>
-          <t>78.5%</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="R16" s="37" t="n">
-        <v>73884</v>
+        <v>73618</v>
       </c>
       <c r="S16" s="9" t="inlineStr">
         <is>
-          <t>21.5%</t>
+          <t>21.8%</t>
         </is>
       </c>
       <c r="T16" s="10" t="n">
-        <v>20243</v>
+        <v>20509</v>
       </c>
     </row>
     <row r="17">
@@ -2389,19 +2389,19 @@
       </c>
       <c r="I17" s="33" t="inlineStr">
         <is>
-          <t>90.1%</t>
+          <t>86.8%</t>
         </is>
       </c>
       <c r="J17" s="33" t="n">
-        <v>74257</v>
+        <v>71542</v>
       </c>
       <c r="K17" s="34" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="L17" s="34" t="n">
-        <v>2538</v>
+        <v>2496</v>
       </c>
       <c r="M17" s="35" t="inlineStr">
         <is>
@@ -2421,19 +2421,19 @@
       </c>
       <c r="Q17" s="37" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="R17" s="37" t="n">
-        <v>5585</v>
+        <v>8343</v>
       </c>
       <c r="S17" s="9" t="inlineStr">
         <is>
-          <t>93.2%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="T17" s="10" t="n">
-        <v>76795</v>
+        <v>74037</v>
       </c>
     </row>
     <row r="18">
@@ -2459,27 +2459,27 @@
       </c>
       <c r="I18" s="33" t="inlineStr">
         <is>
-          <t>29.8%</t>
+          <t>30.0%</t>
         </is>
       </c>
       <c r="J18" s="33" t="n">
-        <v>22413</v>
+        <v>22631</v>
       </c>
       <c r="K18" s="34" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="L18" s="34" t="n">
-        <v>3328</v>
+        <v>3100</v>
       </c>
       <c r="M18" s="35" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="N18" s="35" t="n">
-        <v>1535</v>
+        <v>1638</v>
       </c>
       <c r="O18" s="36" t="inlineStr">
         <is>
@@ -2491,19 +2491,19 @@
       </c>
       <c r="Q18" s="37" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="R18" s="37" t="n">
-        <v>48040</v>
+        <v>47947</v>
       </c>
       <c r="S18" s="9" t="inlineStr">
         <is>
-          <t>36.2%</t>
+          <t>36.3%</t>
         </is>
       </c>
       <c r="T18" s="10" t="n">
-        <v>27276</v>
+        <v>27369</v>
       </c>
     </row>
     <row r="19">
@@ -2529,27 +2529,27 @@
       </c>
       <c r="I19" s="33" t="inlineStr">
         <is>
-          <t>40.8%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="J19" s="33" t="n">
-        <v>20086</v>
+        <v>20362</v>
       </c>
       <c r="K19" s="34" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="L19" s="34" t="n">
-        <v>2946</v>
+        <v>2541</v>
       </c>
       <c r="M19" s="35" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="N19" s="35" t="n">
-        <v>7389</v>
+        <v>6716</v>
       </c>
       <c r="O19" s="36" t="inlineStr">
         <is>
@@ -2561,19 +2561,19 @@
       </c>
       <c r="Q19" s="37" t="inlineStr">
         <is>
-          <t>38.3%</t>
+          <t>39.9%</t>
         </is>
       </c>
       <c r="R19" s="37" t="n">
-        <v>18863</v>
+        <v>19666</v>
       </c>
       <c r="S19" s="9" t="inlineStr">
         <is>
-          <t>61.7%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="T19" s="10" t="n">
-        <v>30421</v>
+        <v>29619</v>
       </c>
     </row>
     <row r="20">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="I20" s="33" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="J20" s="33" t="n">
-        <v>254687</v>
+        <v>258196</v>
       </c>
       <c r="K20" s="34" t="inlineStr">
         <is>
@@ -2611,39 +2611,39 @@
         </is>
       </c>
       <c r="L20" s="34" t="n">
-        <v>5560</v>
+        <v>5673</v>
       </c>
       <c r="M20" s="35" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="N20" s="35" t="n">
-        <v>20542</v>
+        <v>23661</v>
       </c>
       <c r="O20" s="36" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="P20" s="36" t="n">
-        <v>2342</v>
+        <v>1715</v>
       </c>
       <c r="Q20" s="37" t="inlineStr">
         <is>
-          <t>39.7%</t>
+          <t>38.4%</t>
         </is>
       </c>
       <c r="R20" s="37" t="n">
-        <v>186481</v>
+        <v>180368</v>
       </c>
       <c r="S20" s="9" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>61.6%</t>
         </is>
       </c>
       <c r="T20" s="10" t="n">
-        <v>283132</v>
+        <v>289245</v>
       </c>
     </row>
     <row r="21">
@@ -2669,19 +2669,19 @@
       </c>
       <c r="I21" s="33" t="inlineStr">
         <is>
-          <t>50.4%</t>
+          <t>53.0%</t>
         </is>
       </c>
       <c r="J21" s="33" t="n">
-        <v>39276</v>
+        <v>41304</v>
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>7.8%</t>
         </is>
       </c>
       <c r="L21" s="34" t="n">
-        <v>5685</v>
+        <v>6084</v>
       </c>
       <c r="M21" s="35" t="inlineStr">
         <is>
@@ -2701,19 +2701,19 @@
       </c>
       <c r="Q21" s="37" t="inlineStr">
         <is>
-          <t>42.3%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="R21" s="37" t="n">
-        <v>33009</v>
+        <v>30581</v>
       </c>
       <c r="S21" s="9" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>60.8%</t>
         </is>
       </c>
       <c r="T21" s="10" t="n">
-        <v>44960</v>
+        <v>47388</v>
       </c>
     </row>
     <row r="22">
@@ -2739,27 +2739,27 @@
       </c>
       <c r="I22" s="33" t="inlineStr">
         <is>
-          <t>57.9%</t>
+          <t>51.3%</t>
         </is>
       </c>
       <c r="J22" s="33" t="n">
-        <v>49414</v>
+        <v>43754</v>
       </c>
       <c r="K22" s="34" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="L22" s="34" t="n">
-        <v>1691</v>
+        <v>2065</v>
       </c>
       <c r="M22" s="35" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>13.1%</t>
         </is>
       </c>
       <c r="N22" s="35" t="n">
-        <v>12675</v>
+        <v>11210</v>
       </c>
       <c r="O22" s="36" t="inlineStr">
         <is>
@@ -2771,19 +2771,19 @@
       </c>
       <c r="Q22" s="37" t="inlineStr">
         <is>
-          <t>25.2%</t>
+          <t>33.1%</t>
         </is>
       </c>
       <c r="R22" s="37" t="n">
-        <v>21495</v>
+        <v>28247</v>
       </c>
       <c r="S22" s="9" t="inlineStr">
         <is>
-          <t>74.8%</t>
+          <t>66.9%</t>
         </is>
       </c>
       <c r="T22" s="10" t="n">
-        <v>63780</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="23">
@@ -2809,11 +2809,11 @@
       </c>
       <c r="I23" s="33" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="J23" s="33" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
       <c r="K23" s="34" t="inlineStr">
         <is>
@@ -2841,19 +2841,19 @@
       </c>
       <c r="Q23" s="37" t="inlineStr">
         <is>
-          <t>57.5%</t>
+          <t>63.5%</t>
         </is>
       </c>
       <c r="R23" s="37" t="n">
-        <v>47049</v>
+        <v>51940</v>
       </c>
       <c r="S23" s="9" t="inlineStr">
         <is>
-          <t>42.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="T23" s="10" t="n">
-        <v>34791</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="24">
@@ -2879,27 +2879,27 @@
       </c>
       <c r="I24" s="33" t="inlineStr">
         <is>
-          <t>30.1%</t>
+          <t>27.5%</t>
         </is>
       </c>
       <c r="J24" s="33" t="n">
-        <v>35093</v>
+        <v>32096</v>
       </c>
       <c r="K24" s="34" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="L24" s="34" t="n">
-        <v>6549</v>
+        <v>6591</v>
       </c>
       <c r="M24" s="35" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="N24" s="35" t="n">
-        <v>4776</v>
+        <v>5589</v>
       </c>
       <c r="O24" s="36" t="inlineStr">
         <is>
@@ -2907,23 +2907,23 @@
         </is>
       </c>
       <c r="P24" s="36" t="n">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="37" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>61.7%</t>
         </is>
       </c>
       <c r="R24" s="37" t="n">
-        <v>69845</v>
+        <v>71926</v>
       </c>
       <c r="S24" s="9" t="inlineStr">
         <is>
-          <t>40.1%</t>
+          <t>38.3%</t>
         </is>
       </c>
       <c r="T24" s="10" t="n">
-        <v>46765</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="25">
@@ -2949,11 +2949,11 @@
       </c>
       <c r="I25" s="33" t="inlineStr">
         <is>
-          <t>54.2%</t>
+          <t>66.3%</t>
         </is>
       </c>
       <c r="J25" s="33" t="n">
-        <v>56024</v>
+        <v>68497</v>
       </c>
       <c r="K25" s="34" t="inlineStr">
         <is>
@@ -2973,27 +2973,27 @@
       </c>
       <c r="O25" s="36" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>26.1%</t>
         </is>
       </c>
       <c r="P25" s="36" t="n">
-        <v>35711</v>
+        <v>26940</v>
       </c>
       <c r="Q25" s="37" t="inlineStr">
         <is>
-          <t>11.3%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="R25" s="37" t="n">
-        <v>11652</v>
+        <v>7950</v>
       </c>
       <c r="S25" s="9" t="inlineStr">
         <is>
-          <t>88.7%</t>
+          <t>92.3%</t>
         </is>
       </c>
       <c r="T25" s="10" t="n">
-        <v>91735</v>
+        <v>95437</v>
       </c>
     </row>
     <row r="26">
@@ -3019,11 +3019,11 @@
       </c>
       <c r="I26" s="33" t="inlineStr">
         <is>
-          <t>74.5%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="J26" s="33" t="n">
-        <v>52690</v>
+        <v>52376</v>
       </c>
       <c r="K26" s="34" t="inlineStr">
         <is>
@@ -3039,31 +3039,31 @@
         </is>
       </c>
       <c r="N26" s="35" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="O26" s="36" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="P26" s="36" t="n">
-        <v>992</v>
+        <v>1375</v>
       </c>
       <c r="Q26" s="37" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>23.1%</t>
         </is>
       </c>
       <c r="R26" s="37" t="n">
-        <v>16422</v>
+        <v>16351</v>
       </c>
       <c r="S26" s="9" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="T26" s="10" t="n">
-        <v>54338</v>
+        <v>54409</v>
       </c>
     </row>
     <row r="27">
@@ -3089,11 +3089,11 @@
       </c>
       <c r="I27" s="33" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="J27" s="33" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
       <c r="K27" s="34" t="inlineStr">
         <is>
@@ -3121,19 +3121,19 @@
       </c>
       <c r="Q27" s="37" t="inlineStr">
         <is>
-          <t>49.9%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="R27" s="37" t="n">
-        <v>56982</v>
+        <v>56361</v>
       </c>
       <c r="S27" s="9" t="inlineStr">
         <is>
-          <t>50.1%</t>
+          <t>50.6%</t>
         </is>
       </c>
       <c r="T27" s="10" t="n">
-        <v>57150</v>
+        <v>57771</v>
       </c>
     </row>
     <row r="28">
@@ -3229,11 +3229,11 @@
       </c>
       <c r="I29" s="40" t="inlineStr">
         <is>
-          <t>42.1%</t>
+          <t>39.3%</t>
         </is>
       </c>
       <c r="J29" s="40" t="n">
-        <v>41576</v>
+        <v>38869</v>
       </c>
       <c r="K29" s="41" t="inlineStr">
         <is>
@@ -3245,35 +3245,35 @@
       </c>
       <c r="M29" s="42" t="inlineStr">
         <is>
-          <t>5.8%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="N29" s="42" t="n">
-        <v>5691</v>
+        <v>5062</v>
       </c>
       <c r="O29" s="43" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="P29" s="43" t="n">
-        <v>4777</v>
+        <v>4670</v>
       </c>
       <c r="Q29" s="44" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>50.8%</t>
         </is>
       </c>
       <c r="R29" s="44" t="n">
-        <v>46777</v>
+        <v>50220</v>
       </c>
       <c r="S29" s="45" t="inlineStr">
         <is>
-          <t>52.7%</t>
+          <t>49.2%</t>
         </is>
       </c>
       <c r="T29" s="10" t="n">
-        <v>52044</v>
+        <v>48601</v>
       </c>
     </row>
   </sheetData>
@@ -3435,11 +3435,11 @@
       </c>
       <c r="I6" s="33" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>68.7%</t>
         </is>
       </c>
       <c r="J6" s="33" t="n">
-        <v>22341</v>
+        <v>23874</v>
       </c>
       <c r="K6" s="34" t="inlineStr">
         <is>
@@ -3459,27 +3459,27 @@
       </c>
       <c r="O6" s="36" t="inlineStr">
         <is>
-          <t>23.2%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="P6" s="36" t="n">
-        <v>8052</v>
+        <v>8413</v>
       </c>
       <c r="Q6" s="37" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="R6" s="37" t="n">
-        <v>4335</v>
+        <v>2441</v>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="T6" s="10" t="n">
-        <v>30393</v>
+        <v>32287</v>
       </c>
     </row>
     <row r="7">
@@ -3505,19 +3505,19 @@
       </c>
       <c r="I7" s="33" t="inlineStr">
         <is>
-          <t>55.3%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>9149</v>
+        <v>9093</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="L7" s="34" t="n">
-        <v>707</v>
+        <v>813</v>
       </c>
       <c r="M7" s="35" t="inlineStr">
         <is>
@@ -3529,27 +3529,27 @@
       </c>
       <c r="O7" s="36" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="P7" s="36" t="n">
-        <v>654</v>
+        <v>543</v>
       </c>
       <c r="Q7" s="37" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="R7" s="37" t="n">
-        <v>6022</v>
+        <v>6083</v>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="T7" s="10" t="n">
-        <v>10510</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="8">
@@ -3575,11 +3575,11 @@
       </c>
       <c r="I8" s="33" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>74.5%</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>10064</v>
+        <v>9978</v>
       </c>
       <c r="K8" s="34" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="L8" s="34" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="35" t="inlineStr">
         <is>
@@ -3595,31 +3595,31 @@
         </is>
       </c>
       <c r="N8" s="35" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O8" s="36" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="P8" s="36" t="n">
-        <v>1268</v>
+        <v>1155</v>
       </c>
       <c r="Q8" s="37" t="inlineStr">
         <is>
-          <t>14.2%</t>
+          <t>15.7%</t>
         </is>
       </c>
       <c r="R8" s="37" t="n">
-        <v>1903</v>
+        <v>2108</v>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>85.8%</t>
+          <t>84.3%</t>
         </is>
       </c>
       <c r="T8" s="10" t="n">
-        <v>11491</v>
+        <v>11286</v>
       </c>
     </row>
     <row r="9">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="I9" s="33" t="inlineStr">
         <is>
-          <t>68.4%</t>
+          <t>70.9%</t>
         </is>
       </c>
       <c r="J9" s="33" t="n">
-        <v>16958</v>
+        <v>17572</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -3661,19 +3661,19 @@
       </c>
       <c r="M9" s="35" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="N9" s="35" t="n">
-        <v>1732</v>
+        <v>1474</v>
       </c>
       <c r="O9" s="36" t="inlineStr">
         <is>
-          <t>24.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="P9" s="36" t="n">
-        <v>6106</v>
+        <v>5750</v>
       </c>
       <c r="Q9" s="37" t="inlineStr">
         <is>
@@ -3715,11 +3715,11 @@
       </c>
       <c r="I10" s="33" t="inlineStr">
         <is>
-          <t>65.8%</t>
+          <t>55.3%</t>
         </is>
       </c>
       <c r="J10" s="33" t="n">
-        <v>7459</v>
+        <v>6270</v>
       </c>
       <c r="K10" s="34" t="inlineStr">
         <is>
@@ -3731,35 +3731,35 @@
       </c>
       <c r="M10" s="35" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="N10" s="35" t="n">
-        <v>134</v>
+        <v>290</v>
       </c>
       <c r="O10" s="36" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="P10" s="36" t="n">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="Q10" s="37" t="inlineStr">
         <is>
-          <t>27.5%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="R10" s="37" t="n">
-        <v>3123</v>
+        <v>4194</v>
       </c>
       <c r="S10" s="9" t="inlineStr">
         <is>
-          <t>72.5%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="T10" s="10" t="n">
-        <v>8213</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="11">
@@ -3785,19 +3785,19 @@
       </c>
       <c r="I11" s="33" t="inlineStr">
         <is>
-          <t>68.9%</t>
+          <t>70.7%</t>
         </is>
       </c>
       <c r="J11" s="33" t="n">
-        <v>8390</v>
+        <v>8618</v>
       </c>
       <c r="K11" s="34" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="L11" s="34" t="n">
-        <v>880</v>
+        <v>846</v>
       </c>
       <c r="M11" s="35" t="inlineStr">
         <is>
@@ -3809,27 +3809,27 @@
       </c>
       <c r="O11" s="36" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="P11" s="36" t="n">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="37" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>18.4%</t>
         </is>
       </c>
       <c r="R11" s="37" t="n">
-        <v>2415</v>
+        <v>2247</v>
       </c>
       <c r="S11" s="9" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>81.6%</t>
         </is>
       </c>
       <c r="T11" s="10" t="n">
-        <v>9767</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="12">
@@ -3855,51 +3855,51 @@
       </c>
       <c r="I12" s="40" t="inlineStr">
         <is>
-          <t>18.4%</t>
+          <t>20.5%</t>
         </is>
       </c>
       <c r="J12" s="40" t="n">
-        <v>7468</v>
+        <v>8315</v>
       </c>
       <c r="K12" s="41" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="L12" s="41" t="n">
-        <v>929</v>
+        <v>1113</v>
       </c>
       <c r="M12" s="42" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N12" s="42" t="n">
-        <v>341</v>
+        <v>697</v>
       </c>
       <c r="O12" s="43" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>17.6%</t>
         </is>
       </c>
       <c r="P12" s="43" t="n">
-        <v>7029</v>
+        <v>7146</v>
       </c>
       <c r="Q12" s="44" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>57.5%</t>
         </is>
       </c>
       <c r="R12" s="44" t="n">
-        <v>24837</v>
+        <v>23333</v>
       </c>
       <c r="S12" s="45" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>42.5%</t>
         </is>
       </c>
       <c r="T12" s="10" t="n">
-        <v>15767</v>
+        <v>17271</v>
       </c>
     </row>
   </sheetData>
@@ -4061,11 +4061,11 @@
       </c>
       <c r="I6" s="33" t="inlineStr">
         <is>
-          <t>79.9%</t>
+          <t>78.5%</t>
         </is>
       </c>
       <c r="J6" s="33" t="n">
-        <v>55512</v>
+        <v>54493</v>
       </c>
       <c r="K6" s="34" t="inlineStr">
         <is>
@@ -4077,35 +4077,35 @@
       </c>
       <c r="M6" s="35" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="N6" s="35" t="n">
-        <v>5487</v>
+        <v>4968</v>
       </c>
       <c r="O6" s="36" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>8.4%</t>
         </is>
       </c>
       <c r="P6" s="36" t="n">
-        <v>4537</v>
+        <v>5844</v>
       </c>
       <c r="Q6" s="37" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="R6" s="37" t="n">
-        <v>3921</v>
+        <v>4153</v>
       </c>
       <c r="S6" s="9" t="inlineStr">
         <is>
-          <t>94.4%</t>
+          <t>94.0%</t>
         </is>
       </c>
       <c r="T6" s="10" t="n">
-        <v>65536</v>
+        <v>65304</v>
       </c>
     </row>
     <row r="7">
@@ -4131,19 +4131,19 @@
       </c>
       <c r="I7" s="33" t="inlineStr">
         <is>
-          <t>76.5%</t>
+          <t>77.0%</t>
         </is>
       </c>
       <c r="J7" s="33" t="n">
-        <v>25288</v>
+        <v>25449</v>
       </c>
       <c r="K7" s="34" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="L7" s="34" t="n">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="M7" s="35" t="inlineStr">
         <is>
@@ -4155,27 +4155,27 @@
       </c>
       <c r="O7" s="36" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P7" s="36" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="37" t="inlineStr">
         <is>
-          <t>19.8%</t>
+          <t>19.4%</t>
         </is>
       </c>
       <c r="R7" s="37" t="n">
-        <v>6558</v>
+        <v>6401</v>
       </c>
       <c r="S7" s="9" t="inlineStr">
         <is>
-          <t>80.2%</t>
+          <t>80.6%</t>
         </is>
       </c>
       <c r="T7" s="10" t="n">
-        <v>26506</v>
+        <v>26663</v>
       </c>
     </row>
     <row r="8">
@@ -4201,51 +4201,51 @@
       </c>
       <c r="I8" s="33" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="J8" s="33" t="n">
-        <v>20080</v>
+        <v>19819</v>
       </c>
       <c r="K8" s="34" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="L8" s="34" t="n">
-        <v>470</v>
+        <v>361</v>
       </c>
       <c r="M8" s="35" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="N8" s="35" t="n">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="O8" s="36" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="P8" s="36" t="n">
-        <v>1595</v>
+        <v>1993</v>
       </c>
       <c r="Q8" s="37" t="inlineStr">
         <is>
-          <t>16.5%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="R8" s="37" t="n">
-        <v>4417</v>
+        <v>4320</v>
       </c>
       <c r="S8" s="9" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>83.9%</t>
         </is>
       </c>
       <c r="T8" s="10" t="n">
-        <v>22373</v>
+        <v>22470</v>
       </c>
     </row>
     <row r="9">
@@ -4271,11 +4271,11 @@
       </c>
       <c r="I9" s="33" t="inlineStr">
         <is>
-          <t>27.0%</t>
+          <t>27.9%</t>
         </is>
       </c>
       <c r="J9" s="33" t="n">
-        <v>13404</v>
+        <v>13830</v>
       </c>
       <c r="K9" s="34" t="inlineStr">
         <is>
@@ -4283,39 +4283,39 @@
         </is>
       </c>
       <c r="L9" s="34" t="n">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M9" s="35" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="N9" s="35" t="n">
-        <v>3599</v>
+        <v>3382</v>
       </c>
       <c r="O9" s="36" t="inlineStr">
         <is>
-          <t>12.8%</t>
+          <t>11.3%</t>
         </is>
       </c>
       <c r="P9" s="36" t="n">
-        <v>6359</v>
+        <v>5609</v>
       </c>
       <c r="Q9" s="37" t="inlineStr">
         <is>
-          <t>52.1%</t>
+          <t>53.2%</t>
         </is>
       </c>
       <c r="R9" s="37" t="n">
-        <v>25835</v>
+        <v>26398</v>
       </c>
       <c r="S9" s="9" t="inlineStr">
         <is>
-          <t>47.9%</t>
+          <t>46.8%</t>
         </is>
       </c>
       <c r="T9" s="10" t="n">
-        <v>23757</v>
+        <v>23195</v>
       </c>
     </row>
     <row r="10">
@@ -4341,51 +4341,51 @@
       </c>
       <c r="I10" s="33" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="J10" s="33" t="n">
-        <v>30708</v>
+        <v>32514</v>
       </c>
       <c r="K10" s="34" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="L10" s="34" t="n">
-        <v>721</v>
+        <v>1061</v>
       </c>
       <c r="M10" s="35" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="N10" s="35" t="n">
-        <v>3191</v>
+        <v>2740</v>
       </c>
       <c r="O10" s="36" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>14.8%</t>
         </is>
       </c>
       <c r="P10" s="36" t="n">
-        <v>11437</v>
+        <v>10172</v>
       </c>
       <c r="Q10" s="37" t="inlineStr">
         <is>
-          <t>32.8%</t>
+          <t>32.2%</t>
         </is>
       </c>
       <c r="R10" s="37" t="n">
-        <v>22518</v>
+        <v>22089</v>
       </c>
       <c r="S10" s="9" t="inlineStr">
         <is>
-          <t>67.2%</t>
+          <t>67.8%</t>
         </is>
       </c>
       <c r="T10" s="10" t="n">
-        <v>46057</v>
+        <v>46486</v>
       </c>
     </row>
     <row r="11">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="I12" s="33" t="inlineStr">
         <is>
-          <t>49.7%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="J12" s="33" t="n">
-        <v>10095</v>
+        <v>10500</v>
       </c>
       <c r="K12" s="34" t="inlineStr">
         <is>
@@ -4497,35 +4497,35 @@
       </c>
       <c r="M12" s="35" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="N12" s="35" t="n">
-        <v>1017</v>
+        <v>658</v>
       </c>
       <c r="O12" s="36" t="inlineStr">
         <is>
-          <t>23.7%</t>
+          <t>21.9%</t>
         </is>
       </c>
       <c r="P12" s="36" t="n">
-        <v>4819</v>
+        <v>4443</v>
       </c>
       <c r="Q12" s="37" t="inlineStr">
         <is>
-          <t>21.6%</t>
+          <t>23.2%</t>
         </is>
       </c>
       <c r="R12" s="37" t="n">
-        <v>4383</v>
+        <v>4714</v>
       </c>
       <c r="S12" s="9" t="inlineStr">
         <is>
-          <t>78.4%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="T12" s="10" t="n">
-        <v>15931</v>
+        <v>15601</v>
       </c>
     </row>
     <row r="13">
@@ -4551,51 +4551,51 @@
       </c>
       <c r="I13" s="33" t="inlineStr">
         <is>
-          <t>24.9%</t>
+          <t>23.3%</t>
         </is>
       </c>
       <c r="J13" s="33" t="n">
-        <v>14684</v>
+        <v>13762</v>
       </c>
       <c r="K13" s="34" t="inlineStr">
         <is>
-          <t>30.7%</t>
+          <t>30.1%</t>
         </is>
       </c>
       <c r="L13" s="34" t="n">
-        <v>18141</v>
+        <v>17778</v>
       </c>
       <c r="M13" s="35" t="inlineStr">
         <is>
-          <t>9.0%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="N13" s="35" t="n">
-        <v>5304</v>
+        <v>4172</v>
       </c>
       <c r="O13" s="36" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="P13" s="36" t="n">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="Q13" s="37" t="inlineStr">
         <is>
-          <t>34.5%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="R13" s="37" t="n">
-        <v>20352</v>
+        <v>22830</v>
       </c>
       <c r="S13" s="9" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>61.3%</t>
         </is>
       </c>
       <c r="T13" s="10" t="n">
-        <v>38715</v>
+        <v>36238</v>
       </c>
     </row>
     <row r="14">
@@ -4621,11 +4621,11 @@
       </c>
       <c r="I14" s="33" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>52.8%</t>
         </is>
       </c>
       <c r="J14" s="33" t="n">
-        <v>12303</v>
+        <v>11960</v>
       </c>
       <c r="K14" s="34" t="inlineStr">
         <is>
@@ -4637,35 +4637,35 @@
       </c>
       <c r="M14" s="35" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="N14" s="35" t="n">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="O14" s="36" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="P14" s="36" t="n">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="37" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>44.5%</t>
         </is>
       </c>
       <c r="R14" s="37" t="n">
-        <v>9855</v>
+        <v>10087</v>
       </c>
       <c r="S14" s="9" t="inlineStr">
         <is>
-          <t>56.5%</t>
+          <t>55.5%</t>
         </is>
       </c>
       <c r="T14" s="10" t="n">
-        <v>12819</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="15">
@@ -4691,51 +4691,51 @@
       </c>
       <c r="I15" s="33" t="inlineStr">
         <is>
-          <t>45.3%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="J15" s="33" t="n">
-        <v>12183</v>
+        <v>11695</v>
       </c>
       <c r="K15" s="34" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="L15" s="34" t="n">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="M15" s="35" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="N15" s="35" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="O15" s="36" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="P15" s="36" t="n">
-        <v>552</v>
+        <v>694</v>
       </c>
       <c r="Q15" s="37" t="inlineStr">
         <is>
-          <t>50.7%</t>
+          <t>51.8%</t>
         </is>
       </c>
       <c r="R15" s="37" t="n">
-        <v>13640</v>
+        <v>13942</v>
       </c>
       <c r="S15" s="9" t="inlineStr">
         <is>
-          <t>49.3%</t>
+          <t>48.2%</t>
         </is>
       </c>
       <c r="T15" s="10" t="n">
-        <v>13254</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="16">
@@ -4761,19 +4761,19 @@
       </c>
       <c r="I16" s="33" t="inlineStr">
         <is>
-          <t>88.9%</t>
+          <t>89.9%</t>
         </is>
       </c>
       <c r="J16" s="33" t="n">
-        <v>20927</v>
+        <v>21169</v>
       </c>
       <c r="K16" s="34" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="L16" s="34" t="n">
-        <v>1342</v>
+        <v>1377</v>
       </c>
       <c r="M16" s="35" t="inlineStr">
         <is>
@@ -4793,19 +4793,19 @@
       </c>
       <c r="Q16" s="37" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="R16" s="37" t="n">
-        <v>1268</v>
+        <v>990</v>
       </c>
       <c r="S16" s="9" t="inlineStr">
         <is>
-          <t>94.6%</t>
+          <t>95.8%</t>
         </is>
       </c>
       <c r="T16" s="10" t="n">
-        <v>22269</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="17">
@@ -4831,11 +4831,11 @@
       </c>
       <c r="I17" s="33" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="J17" s="33" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
       <c r="K17" s="34" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
       </c>
       <c r="Q17" s="37" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="R17" s="37" t="n">
-        <v>99350</v>
+        <v>101694</v>
       </c>
       <c r="S17" s="9" t="inlineStr">
         <is>
-          <t>26.0%</t>
+          <t>24.2%</t>
         </is>
       </c>
       <c r="T17" s="10" t="n">
-        <v>34825</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="18">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="I18" s="33" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="J18" s="33" t="n">
-        <v>7964</v>
+        <v>8303</v>
       </c>
       <c r="K18" s="34" t="inlineStr">
         <is>
@@ -4917,35 +4917,35 @@
       </c>
       <c r="M18" s="35" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="N18" s="35" t="n">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="O18" s="36" t="inlineStr">
         <is>
-          <t>9.4%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="P18" s="36" t="n">
-        <v>2291</v>
+        <v>1668</v>
       </c>
       <c r="Q18" s="37" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>53.5%</t>
         </is>
       </c>
       <c r="R18" s="37" t="n">
-        <v>12811</v>
+        <v>13046</v>
       </c>
       <c r="S18" s="9" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>46.5%</t>
         </is>
       </c>
       <c r="T18" s="10" t="n">
-        <v>11553</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="19">
@@ -4971,11 +4971,11 @@
       </c>
       <c r="I19" s="33" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="J19" s="33" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
       <c r="K19" s="34" t="inlineStr">
         <is>
@@ -5003,19 +5003,19 @@
       </c>
       <c r="Q19" s="37" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="R19" s="37" t="n">
-        <v>1619</v>
+        <v>1498</v>
       </c>
       <c r="S19" s="9" t="inlineStr">
         <is>
-          <t>93.1%</t>
+          <t>93.6%</t>
         </is>
       </c>
       <c r="T19" s="10" t="n">
-        <v>21764</v>
+        <v>21885</v>
       </c>
     </row>
     <row r="20">
@@ -5045,15 +5045,15 @@
         </is>
       </c>
       <c r="J20" s="33" t="n">
-        <v>6170</v>
+        <v>6171</v>
       </c>
       <c r="K20" s="34" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="L20" s="34" t="n">
-        <v>265</v>
+        <v>479</v>
       </c>
       <c r="M20" s="35" t="inlineStr">
         <is>
@@ -5065,11 +5065,11 @@
       </c>
       <c r="O20" s="36" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>77.5%</t>
         </is>
       </c>
       <c r="P20" s="36" t="n">
-        <v>23104</v>
+        <v>22889</v>
       </c>
       <c r="Q20" s="37" t="inlineStr">
         <is>
@@ -5111,11 +5111,11 @@
       </c>
       <c r="I21" s="33" t="inlineStr">
         <is>
-          <t>35.2%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="J21" s="33" t="n">
-        <v>11463</v>
+        <v>11407</v>
       </c>
       <c r="K21" s="34" t="inlineStr">
         <is>
@@ -5123,39 +5123,39 @@
         </is>
       </c>
       <c r="L21" s="34" t="n">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M21" s="35" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="N21" s="35" t="n">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="O21" s="36" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="P21" s="36" t="n">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="37" t="inlineStr">
         <is>
-          <t>61.6%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="R21" s="37" t="n">
-        <v>20097</v>
+        <v>20070</v>
       </c>
       <c r="S21" s="9" t="inlineStr">
         <is>
-          <t>38.4%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="T21" s="10" t="n">
-        <v>12512</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="22">
@@ -5181,11 +5181,11 @@
       </c>
       <c r="I22" s="40" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>8.6%</t>
         </is>
       </c>
       <c r="J22" s="40" t="n">
-        <v>6300</v>
+        <v>6960</v>
       </c>
       <c r="K22" s="41" t="inlineStr">
         <is>
@@ -5197,35 +5197,35 @@
       </c>
       <c r="M22" s="42" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="N22" s="42" t="n">
-        <v>4927</v>
+        <v>3397</v>
       </c>
       <c r="O22" s="43" t="inlineStr">
         <is>
-          <t>29.5%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="P22" s="43" t="n">
-        <v>23967</v>
+        <v>29671</v>
       </c>
       <c r="Q22" s="44" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>50.7%</t>
         </is>
       </c>
       <c r="R22" s="44" t="n">
-        <v>46014</v>
+        <v>41178</v>
       </c>
       <c r="S22" s="45" t="inlineStr">
         <is>
-          <t>43.3%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="T22" s="10" t="n">
-        <v>35193</v>
+        <v>40029</v>
       </c>
     </row>
   </sheetData>
